--- a/server/excels/insurance.xlsx
+++ b/server/excels/insurance.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="16815" windowHeight="7620"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="27">
   <si>
     <t>نوع عملیات</t>
   </si>
@@ -69,12 +69,6 @@
     <t>نوع بیمه</t>
   </si>
   <si>
-    <t>تاریخ شروع</t>
-  </si>
-  <si>
-    <t>تاریخ پایان</t>
-  </si>
-  <si>
     <t>کلوزهای خریداری شده</t>
   </si>
   <si>
@@ -94,6 +88,18 @@
   </si>
   <si>
     <t>مدت زمان باقی مانده تا انقضا بیمه</t>
+  </si>
+  <si>
+    <t>تاریخ شروع بیمه</t>
+  </si>
+  <si>
+    <t>تاریخ پایان بیمه</t>
+  </si>
+  <si>
+    <t>تاریخ شروع الحاقیه</t>
+  </si>
+  <si>
+    <t>تاریخ پایان الحاقیه</t>
   </si>
 </sst>
 </file>
@@ -483,7 +489,7 @@
   <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView rightToLeft="1" tabSelected="1" topLeftCell="I1" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <selection activeCell="T6" sqref="T6"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -538,40 +544,40 @@
         <v>15</v>
       </c>
       <c r="Q1" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="R1" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S1" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="R1" s="4" t="s">
+      <c r="T1" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="S1" s="4" t="s">
+      <c r="U1" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="4" t="s">
+      <c r="V1" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="U1" s="4" t="s">
+      <c r="W1" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="X1" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="Y1" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="Z1" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="V1" s="4" t="s">
+      <c r="AA1" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="W1" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="X1" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="Y1" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="Z1" s="4" t="s">
+      <c r="AB1" s="4" t="s">
         <v>22</v>
-      </c>
-      <c r="AA1" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="AB1" s="4" t="s">
-        <v>24</v>
       </c>
     </row>
   </sheetData>
